--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Rarres2-Cmklr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Rarres2-Cmklr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Rarres2</t>
+  </si>
+  <si>
+    <t>Cmklr1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Rarres2</t>
-  </si>
-  <si>
-    <t>Cmklr1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>4.460159</v>
+      </c>
+      <c r="H2">
+        <v>8.920318</v>
+      </c>
+      <c r="I2">
+        <v>0.04376135749485089</v>
+      </c>
+      <c r="J2">
+        <v>0.03213305220268435</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.5</v>
       </c>
-      <c r="G2">
-        <v>0.878365</v>
-      </c>
-      <c r="H2">
-        <v>1.75673</v>
-      </c>
-      <c r="I2">
-        <v>0.009452436795461589</v>
-      </c>
-      <c r="J2">
-        <v>0.006670024516923835</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>5.3507195</v>
+        <v>0.193736</v>
       </c>
       <c r="N2">
-        <v>10.701439</v>
+        <v>0.387472</v>
       </c>
       <c r="O2">
-        <v>0.05104340877568146</v>
+        <v>0.002467375578658101</v>
       </c>
       <c r="P2">
-        <v>0.03471002356432059</v>
+        <v>0.001649282111813905</v>
       </c>
       <c r="Q2">
-        <v>4.6998847336175</v>
+        <v>0.8640933640239999</v>
       </c>
       <c r="R2">
-        <v>18.79953893447</v>
+        <v>3.456373456096</v>
       </c>
       <c r="S2">
-        <v>0.0004824845952770384</v>
+        <v>0.0001079757047717217</v>
       </c>
       <c r="T2">
-        <v>0.0002315167081570224</v>
+        <v>5.299646819586971E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.878365</v>
+        <v>4.460159</v>
       </c>
       <c r="H3">
-        <v>1.75673</v>
+        <v>8.920318</v>
       </c>
       <c r="I3">
-        <v>0.009452436795461589</v>
+        <v>0.04376135749485089</v>
       </c>
       <c r="J3">
-        <v>0.006670024516923835</v>
+        <v>0.03213305220268435</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>17.607502</v>
       </c>
       <c r="O3">
-        <v>0.05598916320846377</v>
+        <v>0.07474831804788246</v>
       </c>
       <c r="P3">
-        <v>0.05710977835119387</v>
+        <v>0.07494667506897934</v>
       </c>
       <c r="Q3">
-        <v>5.155271164743333</v>
+        <v>26.17741950427267</v>
       </c>
       <c r="R3">
-        <v>30.93162698846</v>
+        <v>157.064517025636</v>
       </c>
       <c r="S3">
-        <v>0.0005292340264587872</v>
+        <v>0.003271087868232199</v>
       </c>
       <c r="T3">
-        <v>0.0003809236217585492</v>
+        <v>0.002408265422409135</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.878365</v>
+        <v>4.460159</v>
       </c>
       <c r="H4">
-        <v>1.75673</v>
+        <v>8.920318</v>
       </c>
       <c r="I4">
-        <v>0.009452436795461589</v>
+        <v>0.04376135749485089</v>
       </c>
       <c r="J4">
-        <v>0.006670024516923835</v>
+        <v>0.03213305220268435</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.11458533333333</v>
+        <v>37.18714533333333</v>
       </c>
       <c r="N4">
-        <v>117.343756</v>
+        <v>111.561436</v>
       </c>
       <c r="O4">
-        <v>0.3731351957920067</v>
+        <v>0.4736066308557842</v>
       </c>
       <c r="P4">
-        <v>0.3806034436944307</v>
+        <v>0.4748634243585907</v>
       </c>
       <c r="Q4">
-        <v>34.35688274631333</v>
+        <v>165.8605809427747</v>
       </c>
       <c r="R4">
-        <v>206.14129647788</v>
+        <v>995.163485656648</v>
       </c>
       <c r="S4">
-        <v>0.003527036854386128</v>
+        <v>0.02072566908481185</v>
       </c>
       <c r="T4">
-        <v>0.002538634300667493</v>
+        <v>0.01525881120406005</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.878365</v>
+        <v>4.460159</v>
       </c>
       <c r="H5">
-        <v>1.75673</v>
+        <v>8.920318</v>
       </c>
       <c r="I5">
-        <v>0.009452436795461589</v>
+        <v>0.04376135749485089</v>
       </c>
       <c r="J5">
-        <v>0.006670024516923835</v>
+        <v>0.03213305220268435</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.8200565000000001</v>
+        <v>0.4296995</v>
       </c>
       <c r="N5">
-        <v>1.640113</v>
+        <v>0.859399</v>
       </c>
       <c r="O5">
-        <v>0.007822962715323543</v>
+        <v>0.005472550545389585</v>
       </c>
       <c r="P5">
-        <v>0.005319692134688478</v>
+        <v>0.003658048575408697</v>
       </c>
       <c r="Q5">
-        <v>0.7203089276225</v>
+        <v>1.9165280922205</v>
       </c>
       <c r="R5">
-        <v>2.88123571049</v>
+        <v>7.666112368882001</v>
       </c>
       <c r="S5">
-        <v>7.394606061984836E-05</v>
+        <v>0.0002394862408254348</v>
       </c>
       <c r="T5">
-        <v>3.548247696085904E-05</v>
+        <v>0.0001175442658335628</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.878365</v>
+        <v>4.460159</v>
       </c>
       <c r="H6">
-        <v>1.75673</v>
+        <v>8.920318</v>
       </c>
       <c r="I6">
-        <v>0.009452436795461589</v>
+        <v>0.04376135749485089</v>
       </c>
       <c r="J6">
-        <v>0.006670024516923835</v>
+        <v>0.03213305220268435</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.422104</v>
+        <v>7.645474666666668</v>
       </c>
       <c r="N6">
-        <v>4.266312</v>
+        <v>22.936424</v>
       </c>
       <c r="O6">
-        <v>0.01356621960720081</v>
+        <v>0.09737094540912643</v>
       </c>
       <c r="P6">
-        <v>0.01383774556419409</v>
+        <v>0.09762933531243327</v>
       </c>
       <c r="Q6">
-        <v>1.24912637996</v>
+        <v>34.10003264380533</v>
       </c>
       <c r="R6">
-        <v>7.49475827976</v>
+        <v>204.600195862832</v>
       </c>
       <c r="S6">
-        <v>0.0001282338333904174</v>
+        <v>0.004261084751660392</v>
       </c>
       <c r="T6">
-        <v>9.229810217212866E-05</v>
+        <v>0.003137128528107793</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.878365</v>
+        <v>4.460159</v>
       </c>
       <c r="H7">
-        <v>1.75673</v>
+        <v>8.920318</v>
       </c>
       <c r="I7">
-        <v>0.009452436795461589</v>
+        <v>0.04376135749485089</v>
       </c>
       <c r="J7">
-        <v>0.006670024516923835</v>
+        <v>0.03213305220268435</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>52.25021233333333</v>
+        <v>27.19383266666667</v>
       </c>
       <c r="N7">
-        <v>156.750637</v>
+        <v>81.581498</v>
       </c>
       <c r="O7">
-        <v>0.4984430499013238</v>
+        <v>0.3463341795631593</v>
       </c>
       <c r="P7">
-        <v>0.5084193166911722</v>
+        <v>0.347253234572774</v>
       </c>
       <c r="Q7">
-        <v>45.89475775616832</v>
+        <v>121.2888175127273</v>
       </c>
       <c r="R7">
-        <v>275.3685465370099</v>
+        <v>727.732905076364</v>
       </c>
       <c r="S7">
-        <v>0.00471150142532937</v>
+        <v>0.01515605384454929</v>
       </c>
       <c r="T7">
-        <v>0.003391169307207783</v>
+        <v>0.01115830631407794</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,40 +921,40 @@
         <v>221.29686</v>
       </c>
       <c r="I8">
-        <v>0.7938213165688949</v>
+        <v>0.7237597735079225</v>
       </c>
       <c r="J8">
-        <v>0.8402289946196978</v>
+        <v>0.7971625624411742</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>5.3507195</v>
+        <v>0.193736</v>
       </c>
       <c r="N8">
-        <v>10.701439</v>
+        <v>0.387472</v>
       </c>
       <c r="O8">
-        <v>0.05104340877568146</v>
+        <v>0.002467375578658101</v>
       </c>
       <c r="P8">
-        <v>0.03471002356432059</v>
+        <v>0.001649282111813905</v>
       </c>
       <c r="Q8">
-        <v>394.69914136359</v>
+        <v>14.29105615632</v>
       </c>
       <c r="R8">
-        <v>2368.19484818154</v>
+        <v>85.74633693792001</v>
       </c>
       <c r="S8">
-        <v>0.04051934595647574</v>
+        <v>0.001785787189968566</v>
       </c>
       <c r="T8">
-        <v>0.02916436820267511</v>
+        <v>0.001314745954441964</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>221.29686</v>
       </c>
       <c r="I9">
-        <v>0.7938213165688949</v>
+        <v>0.7237597735079225</v>
       </c>
       <c r="J9">
-        <v>0.8402289946196978</v>
+        <v>0.7971625624411742</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>17.607502</v>
       </c>
       <c r="O9">
-        <v>0.05598916320846377</v>
+        <v>0.07474831804788246</v>
       </c>
       <c r="P9">
-        <v>0.05710977835119387</v>
+        <v>0.07494667506897934</v>
       </c>
       <c r="Q9">
         <v>432.94276722708</v>
@@ -1013,10 +1013,10 @@
         <v>3896.48490504372</v>
       </c>
       <c r="S9">
-        <v>0.04444539125173344</v>
+        <v>0.05409982574043357</v>
       </c>
       <c r="T9">
-        <v>0.04798529164697741</v>
+        <v>0.05974468354443364</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>221.29686</v>
       </c>
       <c r="I10">
-        <v>0.7938213165688949</v>
+        <v>0.7237597735079225</v>
       </c>
       <c r="J10">
-        <v>0.8402289946196978</v>
+        <v>0.7971625624411742</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>39.11458533333333</v>
+        <v>37.18714533333333</v>
       </c>
       <c r="N10">
-        <v>117.343756</v>
+        <v>111.561436</v>
       </c>
       <c r="O10">
-        <v>0.3731351957920067</v>
+        <v>0.4736066308557842</v>
       </c>
       <c r="P10">
-        <v>0.3806034436944307</v>
+        <v>0.4748634243585907</v>
       </c>
       <c r="Q10">
-        <v>2885.31163815624</v>
+        <v>2743.13283154344</v>
       </c>
       <c r="R10">
-        <v>25967.80474340616</v>
+        <v>24688.19548389096</v>
       </c>
       <c r="S10">
-        <v>0.2962026723818031</v>
+        <v>0.3427774278800327</v>
       </c>
       <c r="T10">
-        <v>0.3197940488441662</v>
+        <v>0.3785433441712849</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>221.29686</v>
       </c>
       <c r="I11">
-        <v>0.7938213165688949</v>
+        <v>0.7237597735079225</v>
       </c>
       <c r="J11">
-        <v>0.8402289946196978</v>
+        <v>0.7971625624411742</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.8200565000000001</v>
+        <v>0.4296995</v>
       </c>
       <c r="N11">
-        <v>1.640113</v>
+        <v>0.859399</v>
       </c>
       <c r="O11">
-        <v>0.007822962715323543</v>
+        <v>0.005472550545389585</v>
       </c>
       <c r="P11">
-        <v>0.005319692134688478</v>
+        <v>0.003658048575408697</v>
       </c>
       <c r="Q11">
-        <v>60.49197615753</v>
+        <v>31.69705003119</v>
       </c>
       <c r="R11">
-        <v>362.9518569451801</v>
+        <v>190.18230018714</v>
       </c>
       <c r="S11">
-        <v>0.006210034562147511</v>
+        <v>0.003960811943241824</v>
       </c>
       <c r="T11">
-        <v>0.004469759574015614</v>
+        <v>0.002916059375907084</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>221.29686</v>
       </c>
       <c r="I12">
-        <v>0.7938213165688949</v>
+        <v>0.7237597735079225</v>
       </c>
       <c r="J12">
-        <v>0.8402289946196978</v>
+        <v>0.7971625624411742</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.422104</v>
+        <v>7.645474666666668</v>
       </c>
       <c r="N12">
-        <v>4.266312</v>
+        <v>22.936424</v>
       </c>
       <c r="O12">
-        <v>0.01356621960720081</v>
+        <v>0.09737094540912643</v>
       </c>
       <c r="P12">
-        <v>0.01383774556419409</v>
+        <v>0.09762933531243327</v>
       </c>
       <c r="Q12">
-        <v>104.90238326448</v>
+        <v>563.97317898096</v>
       </c>
       <c r="R12">
-        <v>944.1214493803201</v>
+        <v>5075.75861082864</v>
       </c>
       <c r="S12">
-        <v>0.0107691543094509</v>
+        <v>0.07047317339556164</v>
       </c>
       <c r="T12">
-        <v>0.01162687504320599</v>
+        <v>0.07782645110708793</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>221.29686</v>
       </c>
       <c r="I13">
-        <v>0.7938213165688949</v>
+        <v>0.7237597735079225</v>
       </c>
       <c r="J13">
-        <v>0.8402289946196978</v>
+        <v>0.7971625624411742</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>52.25021233333333</v>
+        <v>27.19383266666667</v>
       </c>
       <c r="N13">
-        <v>156.750637</v>
+        <v>81.581498</v>
       </c>
       <c r="O13">
-        <v>0.4984430499013238</v>
+        <v>0.3463341795631593</v>
       </c>
       <c r="P13">
-        <v>0.5084193166911722</v>
+        <v>0.347253234572774</v>
       </c>
       <c r="Q13">
-        <v>3854.26930789998</v>
+        <v>2005.96992683292</v>
       </c>
       <c r="R13">
-        <v>34688.42377109982</v>
+        <v>18053.72934149628</v>
       </c>
       <c r="S13">
-        <v>0.3956747181072842</v>
+        <v>0.2506627473586843</v>
       </c>
       <c r="T13">
-        <v>0.4271886513086574</v>
+        <v>0.2768172782880187</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.5189385</v>
+        <v>23.694254</v>
       </c>
       <c r="H14">
-        <v>29.037877</v>
+        <v>47.388508</v>
       </c>
       <c r="I14">
-        <v>0.1562440995582063</v>
+        <v>0.2324788689972265</v>
       </c>
       <c r="J14">
-        <v>0.1102522023927517</v>
+        <v>0.1707043853561415</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>5.3507195</v>
+        <v>0.193736</v>
       </c>
       <c r="N14">
-        <v>10.701439</v>
+        <v>0.387472</v>
       </c>
       <c r="O14">
-        <v>0.05104340877568146</v>
+        <v>0.002467375578658101</v>
       </c>
       <c r="P14">
-        <v>0.03471002356432059</v>
+        <v>0.001649282111813905</v>
       </c>
       <c r="Q14">
-        <v>77.68676735125075</v>
+        <v>4.590429992944</v>
       </c>
       <c r="R14">
-        <v>310.747069405003</v>
+        <v>18.361719971776</v>
       </c>
       <c r="S14">
-        <v>0.007975231442537796</v>
+        <v>0.0005736126839178124</v>
       </c>
       <c r="T14">
-        <v>0.003826856543070655</v>
+        <v>0.0002815396891760717</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.5189385</v>
+        <v>23.694254</v>
       </c>
       <c r="H15">
-        <v>29.037877</v>
+        <v>47.388508</v>
       </c>
       <c r="I15">
-        <v>0.1562440995582063</v>
+        <v>0.2324788689972265</v>
       </c>
       <c r="J15">
-        <v>0.1102522023927517</v>
+        <v>0.1707043853561415</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>17.607502</v>
       </c>
       <c r="O15">
-        <v>0.05598916320846377</v>
+        <v>0.07474831804788246</v>
       </c>
       <c r="P15">
-        <v>0.05710977835119387</v>
+        <v>0.07494667506897934</v>
       </c>
       <c r="Q15">
-        <v>85.21407955887567</v>
+        <v>139.0655415645027</v>
       </c>
       <c r="R15">
-        <v>511.284477353254</v>
+        <v>834.393249387016</v>
       </c>
       <c r="S15">
-        <v>0.008747976390523875</v>
+        <v>0.01737740443921669</v>
       </c>
       <c r="T15">
-        <v>0.006296478841381018</v>
+        <v>0.01279372610213657</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.5189385</v>
+        <v>23.694254</v>
       </c>
       <c r="H16">
-        <v>29.037877</v>
+        <v>47.388508</v>
       </c>
       <c r="I16">
-        <v>0.1562440995582063</v>
+        <v>0.2324788689972265</v>
       </c>
       <c r="J16">
-        <v>0.1102522023927517</v>
+        <v>0.1707043853561415</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>39.11458533333333</v>
+        <v>37.18714533333333</v>
       </c>
       <c r="N16">
-        <v>117.343756</v>
+        <v>111.561436</v>
       </c>
       <c r="O16">
-        <v>0.3731351957920067</v>
+        <v>0.4736066308557842</v>
       </c>
       <c r="P16">
-        <v>0.3806034436944307</v>
+        <v>0.4748634243585907</v>
       </c>
       <c r="Q16">
-        <v>567.9022589076686</v>
+        <v>881.1216670629148</v>
       </c>
       <c r="R16">
-        <v>3407.413553446012</v>
+        <v>5286.730002377488</v>
       </c>
       <c r="S16">
-        <v>0.05830017267999709</v>
+        <v>0.1101035338909397</v>
       </c>
       <c r="T16">
-        <v>0.04196236790557666</v>
+        <v>0.0810612689832458</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.5189385</v>
+        <v>23.694254</v>
       </c>
       <c r="H17">
-        <v>29.037877</v>
+        <v>47.388508</v>
       </c>
       <c r="I17">
-        <v>0.1562440995582063</v>
+        <v>0.2324788689972265</v>
       </c>
       <c r="J17">
-        <v>0.1102522023927517</v>
+        <v>0.1707043853561415</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,28 +1491,28 @@
         <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.8200565000000001</v>
+        <v>0.4296995</v>
       </c>
       <c r="N17">
-        <v>1.640113</v>
+        <v>0.859399</v>
       </c>
       <c r="O17">
-        <v>0.007822962715323543</v>
+        <v>0.005472550545389585</v>
       </c>
       <c r="P17">
-        <v>0.005319692134688478</v>
+        <v>0.003658048575408697</v>
       </c>
       <c r="Q17">
-        <v>11.90634989002525</v>
+        <v>10.181409096673</v>
       </c>
       <c r="R17">
-        <v>47.625399560101</v>
+        <v>40.725636386692</v>
       </c>
       <c r="S17">
-        <v>0.001222291765333148</v>
+        <v>0.001272252361322326</v>
       </c>
       <c r="T17">
-        <v>0.0005865077739008036</v>
+        <v>0.0006244449336680505</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>14.5189385</v>
+        <v>23.694254</v>
       </c>
       <c r="H18">
-        <v>29.037877</v>
+        <v>47.388508</v>
       </c>
       <c r="I18">
-        <v>0.1562440995582063</v>
+        <v>0.2324788689972265</v>
       </c>
       <c r="J18">
-        <v>0.1102522023927517</v>
+        <v>0.1707043853561415</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.422104</v>
+        <v>7.645474666666668</v>
       </c>
       <c r="N18">
-        <v>4.266312</v>
+        <v>22.936424</v>
       </c>
       <c r="O18">
-        <v>0.01356621960720081</v>
+        <v>0.09737094540912643</v>
       </c>
       <c r="P18">
-        <v>0.01383774556419409</v>
+        <v>0.09762933531243327</v>
       </c>
       <c r="Q18">
-        <v>20.647440516604</v>
+        <v>181.1538187025654</v>
       </c>
       <c r="R18">
-        <v>123.884643099624</v>
+        <v>1086.922912215392</v>
       </c>
       <c r="S18">
-        <v>0.002119641766935974</v>
+        <v>0.02263668726190439</v>
       </c>
       <c r="T18">
-        <v>0.00152564192460293</v>
+        <v>0.01666575567723756</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>14.5189385</v>
+        <v>23.694254</v>
       </c>
       <c r="H19">
-        <v>29.037877</v>
+        <v>47.388508</v>
       </c>
       <c r="I19">
-        <v>0.1562440995582063</v>
+        <v>0.2324788689972265</v>
       </c>
       <c r="J19">
-        <v>0.1102522023927517</v>
+        <v>0.1707043853561415</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,772 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>52.25021233333333</v>
+        <v>27.19383266666667</v>
       </c>
       <c r="N19">
-        <v>156.750637</v>
+        <v>81.581498</v>
       </c>
       <c r="O19">
-        <v>0.4984430499013238</v>
+        <v>0.3463341795631593</v>
       </c>
       <c r="P19">
-        <v>0.5084193166911722</v>
+        <v>0.347253234572774</v>
       </c>
       <c r="Q19">
-        <v>758.617619479608</v>
+        <v>644.3375784374973</v>
       </c>
       <c r="R19">
-        <v>4551.705716877648</v>
+        <v>3866.025470624984</v>
       </c>
       <c r="S19">
-        <v>0.07787878551287843</v>
+        <v>0.08051537835992562</v>
       </c>
       <c r="T19">
-        <v>0.05605434940421966</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>3.730150333333334</v>
-      </c>
-      <c r="H20">
-        <v>11.190451</v>
-      </c>
-      <c r="I20">
-        <v>0.0401416384571372</v>
-      </c>
-      <c r="J20">
-        <v>0.04248836333724298</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>5.3507195</v>
-      </c>
-      <c r="N20">
-        <v>10.701439</v>
-      </c>
-      <c r="O20">
-        <v>0.05104340877568146</v>
-      </c>
-      <c r="P20">
-        <v>0.03471002356432059</v>
-      </c>
-      <c r="Q20">
-        <v>19.95898812649817</v>
-      </c>
-      <c r="R20">
-        <v>119.753928758989</v>
-      </c>
-      <c r="S20">
-        <v>0.00204896606069327</v>
-      </c>
-      <c r="T20">
-        <v>0.001474772092645119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>3.730150333333334</v>
-      </c>
-      <c r="H21">
-        <v>11.190451</v>
-      </c>
-      <c r="I21">
-        <v>0.0401416384571372</v>
-      </c>
-      <c r="J21">
-        <v>0.04248836333724298</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>5.869167333333333</v>
-      </c>
-      <c r="N21">
-        <v>17.607502</v>
-      </c>
-      <c r="O21">
-        <v>0.05598916320846377</v>
-      </c>
-      <c r="P21">
-        <v>0.05710977835119387</v>
-      </c>
-      <c r="Q21">
-        <v>21.89287648482245</v>
-      </c>
-      <c r="R21">
-        <v>197.035888363402</v>
-      </c>
-      <c r="S21">
-        <v>0.0022474967470318</v>
-      </c>
-      <c r="T21">
-        <v>0.002426501012694939</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>3.730150333333334</v>
-      </c>
-      <c r="H22">
-        <v>11.190451</v>
-      </c>
-      <c r="I22">
-        <v>0.0401416384571372</v>
-      </c>
-      <c r="J22">
-        <v>0.04248836333724298</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>39.11458533333333</v>
-      </c>
-      <c r="N22">
-        <v>117.343756</v>
-      </c>
-      <c r="O22">
-        <v>0.3731351957920067</v>
-      </c>
-      <c r="P22">
-        <v>0.3806034436944307</v>
-      </c>
-      <c r="Q22">
-        <v>145.9032835193285</v>
-      </c>
-      <c r="R22">
-        <v>1313.129551673956</v>
-      </c>
-      <c r="S22">
-        <v>0.01497825812511583</v>
-      </c>
-      <c r="T22">
-        <v>0.01617121740309487</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>3.730150333333334</v>
-      </c>
-      <c r="H23">
-        <v>11.190451</v>
-      </c>
-      <c r="I23">
-        <v>0.0401416384571372</v>
-      </c>
-      <c r="J23">
-        <v>0.04248836333724298</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>0.5</v>
-      </c>
-      <c r="M23">
-        <v>0.8200565000000001</v>
-      </c>
-      <c r="N23">
-        <v>1.640113</v>
-      </c>
-      <c r="O23">
-        <v>0.007822962715323543</v>
-      </c>
-      <c r="P23">
-        <v>0.005319692134688478</v>
-      </c>
-      <c r="Q23">
-        <v>3.058934026827167</v>
-      </c>
-      <c r="R23">
-        <v>18.35360416096301</v>
-      </c>
-      <c r="S23">
-        <v>0.000314026540982182</v>
-      </c>
-      <c r="T23">
-        <v>0.0002260250122609178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>3.730150333333334</v>
-      </c>
-      <c r="H24">
-        <v>11.190451</v>
-      </c>
-      <c r="I24">
-        <v>0.0401416384571372</v>
-      </c>
-      <c r="J24">
-        <v>0.04248836333724298</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>1.422104</v>
-      </c>
-      <c r="N24">
-        <v>4.266312</v>
-      </c>
-      <c r="O24">
-        <v>0.01356621960720081</v>
-      </c>
-      <c r="P24">
-        <v>0.01383774556419409</v>
-      </c>
-      <c r="Q24">
-        <v>5.304661709634668</v>
-      </c>
-      <c r="R24">
-        <v>47.74195538671201</v>
-      </c>
-      <c r="S24">
-        <v>0.0005445702827023808</v>
-      </c>
-      <c r="T24">
-        <v>0.0005879431612998012</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>3.730150333333334</v>
-      </c>
-      <c r="H25">
-        <v>11.190451</v>
-      </c>
-      <c r="I25">
-        <v>0.0401416384571372</v>
-      </c>
-      <c r="J25">
-        <v>0.04248836333724298</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>52.25021233333333</v>
-      </c>
-      <c r="N25">
-        <v>156.750637</v>
-      </c>
-      <c r="O25">
-        <v>0.4984430499013238</v>
-      </c>
-      <c r="P25">
-        <v>0.5084193166911722</v>
-      </c>
-      <c r="Q25">
-        <v>194.9011469519208</v>
-      </c>
-      <c r="R25">
-        <v>1754.110322567287</v>
-      </c>
-      <c r="S25">
-        <v>0.02000832070061173</v>
-      </c>
-      <c r="T25">
-        <v>0.02160190465524733</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.03164166666666667</v>
-      </c>
-      <c r="H26">
-        <v>0.094925</v>
-      </c>
-      <c r="I26">
-        <v>0.00034050862029991</v>
-      </c>
-      <c r="J26">
-        <v>0.0003604151333836133</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>5.3507195</v>
-      </c>
-      <c r="N26">
-        <v>10.701439</v>
-      </c>
-      <c r="O26">
-        <v>0.05104340877568146</v>
-      </c>
-      <c r="P26">
-        <v>0.03471002356432059</v>
-      </c>
-      <c r="Q26">
-        <v>0.1693056828458333</v>
-      </c>
-      <c r="R26">
-        <v>1.015834097075</v>
-      </c>
-      <c r="S26">
-        <v>1.738072069761161E-05</v>
-      </c>
-      <c r="T26">
-        <v>1.251001777268297E-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G27">
-        <v>0.03164166666666667</v>
-      </c>
-      <c r="H27">
-        <v>0.094925</v>
-      </c>
-      <c r="I27">
-        <v>0.00034050862029991</v>
-      </c>
-      <c r="J27">
-        <v>0.0003604151333836133</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>5.869167333333333</v>
-      </c>
-      <c r="N27">
-        <v>17.607502</v>
-      </c>
-      <c r="O27">
-        <v>0.05598916320846377</v>
-      </c>
-      <c r="P27">
-        <v>0.05710977835119387</v>
-      </c>
-      <c r="Q27">
-        <v>0.1857102363722222</v>
-      </c>
-      <c r="R27">
-        <v>1.67139212735</v>
-      </c>
-      <c r="S27">
-        <v>1.906479271586048E-05</v>
-      </c>
-      <c r="T27">
-        <v>2.058322838195413E-05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G28">
-        <v>0.03164166666666667</v>
-      </c>
-      <c r="H28">
-        <v>0.094925</v>
-      </c>
-      <c r="I28">
-        <v>0.00034050862029991</v>
-      </c>
-      <c r="J28">
-        <v>0.0003604151333836133</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>39.11458533333333</v>
-      </c>
-      <c r="N28">
-        <v>117.343756</v>
-      </c>
-      <c r="O28">
-        <v>0.3731351957920067</v>
-      </c>
-      <c r="P28">
-        <v>0.3806034436944307</v>
-      </c>
-      <c r="Q28">
-        <v>1.237650670922222</v>
-      </c>
-      <c r="R28">
-        <v>11.1388560383</v>
-      </c>
-      <c r="S28">
-        <v>0.000127055750704473</v>
-      </c>
-      <c r="T28">
-        <v>0.0001371752409253908</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G29">
-        <v>0.03164166666666667</v>
-      </c>
-      <c r="H29">
-        <v>0.094925</v>
-      </c>
-      <c r="I29">
-        <v>0.00034050862029991</v>
-      </c>
-      <c r="J29">
-        <v>0.0003604151333836133</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>0.5</v>
-      </c>
-      <c r="M29">
-        <v>0.8200565000000001</v>
-      </c>
-      <c r="N29">
-        <v>1.640113</v>
-      </c>
-      <c r="O29">
-        <v>0.007822962715323543</v>
-      </c>
-      <c r="P29">
-        <v>0.005319692134688478</v>
-      </c>
-      <c r="Q29">
-        <v>0.02594795442083334</v>
-      </c>
-      <c r="R29">
-        <v>0.155687726525</v>
-      </c>
-      <c r="S29">
-        <v>2.663786240852457E-06</v>
-      </c>
-      <c r="T29">
-        <v>1.917297550283507E-06</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G30">
-        <v>0.03164166666666667</v>
-      </c>
-      <c r="H30">
-        <v>0.094925</v>
-      </c>
-      <c r="I30">
-        <v>0.00034050862029991</v>
-      </c>
-      <c r="J30">
-        <v>0.0003604151333836133</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>1.422104</v>
-      </c>
-      <c r="N30">
-        <v>4.266312</v>
-      </c>
-      <c r="O30">
-        <v>0.01356621960720081</v>
-      </c>
-      <c r="P30">
-        <v>0.01383774556419409</v>
-      </c>
-      <c r="Q30">
-        <v>0.04499774073333333</v>
-      </c>
-      <c r="R30">
-        <v>0.4049796666</v>
-      </c>
-      <c r="S30">
-        <v>4.619414721133535E-06</v>
-      </c>
-      <c r="T30">
-        <v>4.987332913247518E-06</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.03164166666666667</v>
-      </c>
-      <c r="H31">
-        <v>0.094925</v>
-      </c>
-      <c r="I31">
-        <v>0.00034050862029991</v>
-      </c>
-      <c r="J31">
-        <v>0.0003604151333836133</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>52.25021233333333</v>
-      </c>
-      <c r="N31">
-        <v>156.750637</v>
-      </c>
-      <c r="O31">
-        <v>0.4984430499013238</v>
-      </c>
-      <c r="P31">
-        <v>0.5084193166911722</v>
-      </c>
-      <c r="Q31">
-        <v>1.653283801913889</v>
-      </c>
-      <c r="R31">
-        <v>14.879554217225</v>
-      </c>
-      <c r="S31">
-        <v>0.000169724155219979</v>
-      </c>
-      <c r="T31">
-        <v>0.0001832420158400544</v>
+        <v>0.0592776499706774</v>
       </c>
     </row>
   </sheetData>
